--- a/CompteRendu.xlsx
+++ b/CompteRendu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GABIN\IUT\S2\SAE_graphes\Projet\SAE_AlgoGraphe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A36C5F11-77E1-4A6E-B99B-D5CBF51922D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B4E86C3-935B-411D-B0C7-9E027DC36D81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{41EA2F91-F8D1-4E07-80EA-0AB42C8D36FD}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
   <si>
     <t>Date</t>
   </si>
@@ -66,6 +66,15 @@
   </si>
   <si>
     <t>Réalisation du quadrillage</t>
+  </si>
+  <si>
+    <t>Création et début du développement de la 1ère application</t>
+  </si>
+  <si>
+    <t>Réduction de la liste des produits</t>
+  </si>
+  <si>
+    <t>Création et début du développement de la 2ème application</t>
   </si>
 </sst>
 </file>
@@ -89,12 +98,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -111,9 +126,6 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -122,6 +134,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -460,28 +475,28 @@
   <dimension ref="A1:C47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="17.33203125" customWidth="1"/>
-    <col min="3" max="3" width="40.33203125" customWidth="1"/>
+    <col min="3" max="3" width="63.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>45803</v>
       </c>
       <c r="B2" t="s">
@@ -492,7 +507,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>45803</v>
       </c>
       <c r="B3" t="s">
@@ -503,7 +518,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>45803</v>
       </c>
       <c r="B4" t="s">
@@ -514,10 +529,10 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="4"/>
+      <c r="A5" s="3"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>45804</v>
       </c>
       <c r="B6" t="s">
@@ -528,7 +543,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <v>45804</v>
       </c>
       <c r="B7" t="s">
@@ -539,7 +554,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
+      <c r="A8" s="2">
         <v>45804</v>
       </c>
       <c r="B8" t="s">
@@ -550,136 +565,145 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
+      <c r="A9" s="3"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
+      <c r="A10" s="2">
         <v>45818</v>
       </c>
       <c r="B10" t="s">
         <v>3</v>
       </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
+      <c r="A11" s="2">
         <v>45818</v>
       </c>
       <c r="B11" t="s">
         <v>4</v>
       </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
+      <c r="A12" s="2">
         <v>45818</v>
       </c>
       <c r="B12" t="s">
         <v>7</v>
       </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="4"/>
+      <c r="A13" s="3"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="4"/>
+      <c r="A14" s="3"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
+      <c r="A15" s="3"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="4"/>
+      <c r="A16" s="3"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
+      <c r="A17" s="3"/>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="4"/>
+      <c r="A18" s="3"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="4"/>
+      <c r="A19" s="3"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="4"/>
+      <c r="A20" s="3"/>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="4"/>
+      <c r="A21" s="3"/>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="4"/>
+      <c r="A22" s="3"/>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="4"/>
+      <c r="A23" s="3"/>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="4"/>
+      <c r="A24" s="3"/>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
+      <c r="A25" s="3"/>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="4"/>
+      <c r="A26" s="3"/>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="4"/>
+      <c r="A27" s="3"/>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="4"/>
+      <c r="A28" s="3"/>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="4"/>
+      <c r="A29" s="3"/>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" s="4"/>
+      <c r="A30" s="3"/>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" s="4"/>
+      <c r="A31" s="3"/>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" s="4"/>
+      <c r="A32" s="3"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="4"/>
+      <c r="A33" s="3"/>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="4"/>
+      <c r="A34" s="3"/>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="4"/>
+      <c r="A35" s="3"/>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="4"/>
+      <c r="A36" s="3"/>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" s="4"/>
+      <c r="A37" s="3"/>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" s="4"/>
+      <c r="A38" s="3"/>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" s="4"/>
+      <c r="A39" s="3"/>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" s="4"/>
+      <c r="A40" s="3"/>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" s="4"/>
+      <c r="A41" s="3"/>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" s="4"/>
+      <c r="A42" s="3"/>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" s="4"/>
+      <c r="A43" s="3"/>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44" s="4"/>
+      <c r="A44" s="3"/>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45" s="4"/>
+      <c r="A45" s="3"/>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46" s="4"/>
+      <c r="A46" s="3"/>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A47" s="4"/>
+      <c r="A47" s="3"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:C1">

--- a/CompteRendu.xlsx
+++ b/CompteRendu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GABIN\IUT\S2\SAE_graphes\Projet\SAE_AlgoGraphe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B4E86C3-935B-411D-B0C7-9E027DC36D81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40C04418-80B8-40EF-822D-BA69CF9855D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{41EA2F91-F8D1-4E07-80EA-0AB42C8D36FD}"/>
   </bookViews>
@@ -124,7 +124,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -137,6 +137,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -475,13 +478,13 @@
   <dimension ref="A1:C47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="17.33203125" customWidth="1"/>
-    <col min="3" max="3" width="63.5546875" customWidth="1"/>
+    <col min="3" max="3" width="63.5546875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -491,7 +494,7 @@
       <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
     </row>
@@ -502,7 +505,7 @@
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -513,7 +516,7 @@
       <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -524,7 +527,7 @@
       <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -538,7 +541,7 @@
       <c r="B6" t="s">
         <v>3</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -549,7 +552,7 @@
       <c r="B7" t="s">
         <v>4</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -560,7 +563,7 @@
       <c r="B8" t="s">
         <v>7</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -574,7 +577,7 @@
       <c r="B10" t="s">
         <v>3</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -585,7 +588,7 @@
       <c r="B11" t="s">
         <v>4</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -596,7 +599,7 @@
       <c r="B12" t="s">
         <v>7</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="3" t="s">
         <v>11</v>
       </c>
     </row>

--- a/CompteRendu.xlsx
+++ b/CompteRendu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GABIN\IUT\S2\SAE_graphes\Projet\SAE_AlgoGraphe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40C04418-80B8-40EF-822D-BA69CF9855D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACBE7919-CB48-4122-8BE0-1FE9C0E38D65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{41EA2F91-F8D1-4E07-80EA-0AB42C8D36FD}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="18">
   <si>
     <t>Date</t>
   </si>
@@ -75,6 +75,24 @@
   </si>
   <si>
     <t>Création et début du développement de la 2ème application</t>
+  </si>
+  <si>
+    <t>Bernard Mahana</t>
+  </si>
+  <si>
+    <t>Trie des produits par rayon</t>
+  </si>
+  <si>
+    <t>Développement application 1</t>
+  </si>
+  <si>
+    <t>Finalisation du quadrillage / développement du bouton ouvrir pour l'application 1</t>
+  </si>
+  <si>
+    <t>Développement application 2 / bouton enregistrer pour l'application 1</t>
+  </si>
+  <si>
+    <t>Notice Utilisation pour application 1</t>
   </si>
 </sst>
 </file>
@@ -124,7 +142,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -134,9 +152,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -475,15 +490,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5FAB7FB-7E5F-4154-BC3A-372F6C5F6311}">
-  <dimension ref="A1:C47"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="17.33203125" customWidth="1"/>
+    <col min="1" max="2" width="17.33203125" style="3" customWidth="1"/>
     <col min="3" max="3" width="63.5546875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
@@ -494,7 +509,7 @@
       <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
@@ -502,7 +517,7 @@
       <c r="A2" s="1">
         <v>45803</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -513,7 +528,7 @@
       <c r="A3" s="2">
         <v>45803</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -524,21 +539,18 @@
       <c r="A4" s="2">
         <v>45803</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>45804</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -549,7 +561,7 @@
       <c r="A7" s="2">
         <v>45804</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -560,21 +572,18 @@
       <c r="A8" s="2">
         <v>45804</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="3"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>45818</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -585,7 +594,7 @@
       <c r="A11" s="2">
         <v>45818</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -596,7 +605,7 @@
       <c r="A12" s="2">
         <v>45818</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="3" t="s">
@@ -604,109 +613,94 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="3"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="3"/>
+      <c r="A13" s="2">
+        <v>45818</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="3"/>
+      <c r="A15" s="2">
+        <v>45819</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="3"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="3"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="3"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="3"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="3"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="3"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="3"/>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="3"/>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="3"/>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="3"/>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="3"/>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="3"/>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="3"/>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="3"/>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" s="3"/>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" s="3"/>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" s="3"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="3"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="3"/>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="3"/>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="3"/>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" s="3"/>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" s="3"/>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" s="3"/>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" s="3"/>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" s="3"/>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" s="3"/>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" s="3"/>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44" s="3"/>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45" s="3"/>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46" s="3"/>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A47" s="3"/>
+      <c r="A16" s="2">
+        <v>45819</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>45819</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>45819</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>45820</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>45820</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>45820</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>45820</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:C1">

--- a/CompteRendu.xlsx
+++ b/CompteRendu.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <workbookPr defaultThemeVersion="202300"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GABIN\IUT\S2\SAE_graphes\Projet\SAE_AlgoGraphe\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C8CAE33-A165-413B-A59B-4FF2447C9092}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -20,74 +25,82 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="19">
-  <si>
-    <t xml:space="preserve">Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prénom/Nom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Travail Effectué</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Justin Thomas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Création du dépôt GIT (admin)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sow Jordan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rejoint le dépôt GIT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bonnier Gabin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Réalisation du quadrillage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Création et début du développement de la 1ère application</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Réduction de la liste des produits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Création et début du développement de la 2ème application</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bernard Mahana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trie des produits par rayon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Développement application 1 (positionnement article par admin + bouton enregistre et ouvrir fonctionnel)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Finalisation du quadrillage / développement du bouton ouvrir pour l'application 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Développement application 2 / bouton enregistrer pour l'application 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ajout de l’algorithme du chemin (Dijkstra, Glouton, zone bloquée, … )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Notice Utilisation pour application 1</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="23">
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Prénom/Nom</t>
+  </si>
+  <si>
+    <t>Travail Effectué</t>
+  </si>
+  <si>
+    <t>Justin Thomas</t>
+  </si>
+  <si>
+    <t>Création du dépôt GIT (admin)</t>
+  </si>
+  <si>
+    <t>Sow Jordan</t>
+  </si>
+  <si>
+    <t>Rejoint le dépôt GIT</t>
+  </si>
+  <si>
+    <t>Bonnier Gabin</t>
+  </si>
+  <si>
+    <t>Réalisation du quadrillage</t>
+  </si>
+  <si>
+    <t>Création et début du développement de la 1ère application</t>
+  </si>
+  <si>
+    <t>Réduction de la liste des produits</t>
+  </si>
+  <si>
+    <t>Création et début du développement de la 2ème application</t>
+  </si>
+  <si>
+    <t>Bernard Mahana</t>
+  </si>
+  <si>
+    <t>Trie des produits par rayon</t>
+  </si>
+  <si>
+    <t>Développement application 1 (positionnement article par admin + bouton enregistre et ouvrir fonctionnel)</t>
+  </si>
+  <si>
+    <t>Finalisation du quadrillage / développement du bouton ouvrir pour l'application 1</t>
+  </si>
+  <si>
+    <t>Développement application 2 / bouton enregistrer pour l'application 1</t>
+  </si>
+  <si>
+    <t>Ajout de l’algorithme du chemin (Dijkstra, Glouton, zone bloquée, … )</t>
+  </si>
+  <si>
+    <t>Transformation de l'application 1 en Modele Vue Controleur</t>
+  </si>
+  <si>
+    <t>Transformation de l'application 2 en Modele Vue Controleur</t>
+  </si>
+  <si>
+    <t>V1 de la notice d'utilisation pour l'application 1</t>
+  </si>
+  <si>
+    <t>V2 de la notice d'utilisation pour l'application 1</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -96,22 +109,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
@@ -134,7 +132,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -142,78 +140,29 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD1D1D1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -272,29 +221,357 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="0E2841"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E8E8E8"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="156082"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="E97132"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="196B24"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="0F9ED5"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="A02B93"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="4EA72E"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="467886"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="96607D"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:C23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="17.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="63.56"/>
+    <col min="1" max="2" width="17.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="63.5546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -305,8 +582,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="n">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
         <v>45803</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -316,8 +593,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="n">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
         <v>45803</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -327,8 +604,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="n">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
         <v>45803</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -338,8 +615,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="n">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
         <v>45804</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -349,8 +626,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="n">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
         <v>45804</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -360,8 +637,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="n">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
         <v>45804</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -371,8 +648,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="n">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
         <v>45818</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -382,8 +659,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="n">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
         <v>45818</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -393,8 +670,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="n">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
         <v>45818</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -404,8 +681,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="n">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
         <v>45818</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -415,8 +692,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4" t="n">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
         <v>45819</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -426,8 +703,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4" t="n">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
         <v>45819</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -437,8 +714,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4" t="n">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
         <v>45819</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -448,8 +725,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4" t="n">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
         <v>45819</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -459,8 +736,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="4" t="n">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
         <v>45820</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -470,40 +747,82 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="4" t="n">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
         <v>45820</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="4" t="n">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="4">
         <v>45820</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="4" t="n">
+      <c r="C22" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="4">
         <v>45820</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="4">
+        <v>45821</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="4">
+        <v>45821</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="4">
+        <v>45821</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="4">
+        <v>45821</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>